--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 8510-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 8510-2022.xlsx", "A 8510-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 8510-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 8510-2022.png", "A 8510-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 8510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 8510-2022.docx", "A 8510-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 8510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 8510-2022.docx", "A 8510-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 8510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 8510-2022.docx", "A 8510-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 8510-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 8510-2022.docx", "A 8510-2022")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,31 +715,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 29724-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 29724-2022.xlsx", "A 29724-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 29724-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 29724-2022.png", "A 29724-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/knärot/A 29724-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/knärot/A 29724-2022.png", "A 29724-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 29724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 29724-2022.docx", "A 29724-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 29724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 29724-2022.docx", "A 29724-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 29724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 29724-2022.docx", "A 29724-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 29724-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 29724-2022.docx", "A 29724-2022")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -804,31 +804,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 29725-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 29725-2022.xlsx", "A 29725-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 29725-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 29725-2022.png", "A 29725-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/knärot/A 29725-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/knärot/A 29725-2022.png", "A 29725-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 29725-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 29725-2022.docx", "A 29725-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 29725-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 29725-2022.docx", "A 29725-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 29725-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 29725-2022.docx", "A 29725-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 29725-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 29725-2022.docx", "A 29725-2022")</f>
         <v/>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 426-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/artfynd/A 426-2023.xlsx", "A 426-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 426-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/kartor/A 426-2023.png", "A 426-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 426-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomål/A 426-2023.docx", "A 426-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 426-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/klagomålsmail/A 426-2023.docx", "A 426-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 426-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsyn/A 426-2023.docx", "A 426-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 426-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TIBRO/tillsynsmail/A 426-2023.docx", "A 426-2023")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>

--- a/Översikt TIBRO.xlsx
+++ b/Översikt TIBRO.xlsx
@@ -572,7 +572,7 @@
         <v>44613</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44755</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44755</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44929</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43376</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43376</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>43431</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>43433</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>43433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43443</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43486</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43487</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43487</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43487</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43522</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43630</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>43677</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>43686</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>43698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>43724</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>43724</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>43728</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>43735</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>43747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>43747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43762</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43781</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43784</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43786</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43789</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43819</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43839</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>43854</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>43857</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>43900</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43902</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>43902</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43903</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43957</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43993</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>43995</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>44005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>44021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44028</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44042</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44043</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44047</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44054</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>44068</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44082</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44084</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44102</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44103</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44152</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44158</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>44231</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>44257</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4424,7 +4424,7 @@
         <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         <v>44315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44318</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44318</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44320</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>44334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44351</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>44354</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44396</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>44396</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44396</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>44426</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5113,7 +5113,7 @@
         <v>44426</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         <v>44446</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>44453</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>44502</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44502</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44512</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>44574</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>44574</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>44602</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>44602</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44623</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
         <v>44657</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44715</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44715</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44734</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44789</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44804</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>44804</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>44828</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>44922</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44929</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>44929</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44929</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>44929</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>44930</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>44953</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>44953</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>44958</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>44960</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>44960</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>44965</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>44984</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45021</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>45034</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45049</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>45124</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
